--- a/assets/student_data.xlsx
+++ b/assets/student_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -34,16 +34,13 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Class 01</t>
+    <t>Class 13</t>
   </si>
   <si>
     <t>st0002</t>
   </si>
   <si>
     <t>Pasindu Lakmal</t>
-  </si>
-  <si>
-    <t>Class 02</t>
   </si>
   <si>
     <t>st0003</t>
@@ -348,18 +345,18 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
